--- a/cadasta/questionnaires/tests/files/ok-multilingual.xlsx
+++ b/cadasta/questionnaires/tests/files/ok-multilingual.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="220">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -253,6 +253,18 @@
   </si>
   <si>
     <t xml:space="preserve">business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one num_children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">num_children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre d'enfants</t>
   </si>
   <si>
     <t xml:space="preserve">end group</t>
@@ -1164,27 +1176,27 @@
   </sheetPr>
   <dimension ref="A1:Z65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.9851851851852"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.0592592592593"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.0666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.4222222222222"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.6037037037037"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.7"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.03703703703704"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.3888888888889"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.1296296296296"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.1074074074074"/>
-    <col collapsed="false" hidden="false" max="14" min="11" style="0" width="8.32962962962963"/>
-    <col collapsed="false" hidden="false" max="26" min="15" style="0" width="9.01481481481481"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.0148148148148"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.7703703703704"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.137037037037"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.7518518518519"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.9111111111111"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.8"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.8962962962963"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.13333333333333"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.5851851851852"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.4259259259259"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.6962962962963"/>
+    <col collapsed="false" hidden="false" max="14" min="11" style="0" width="8.42592592592593"/>
+    <col collapsed="false" hidden="false" max="26" min="15" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.3074074074074"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2064,21 +2076,29 @@
       <c r="Z25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
+      <c r="B26" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="27"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="23"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
       <c r="N26" s="3"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
@@ -2094,16 +2114,18 @@
       <c r="Z26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="24"/>
+      <c r="A27" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="11"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -2121,73 +2143,71 @@
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="31"/>
-      <c r="X28" s="31"/>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="31"/>
-    </row>
-    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="s">
+    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
+    </row>
+    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-    </row>
-    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+      <c r="B30" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
@@ -2197,7 +2217,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
-      <c r="N30" s="4"/>
+      <c r="N30" s="3"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
@@ -2211,7 +2231,36 @@
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
     </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+    </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2311,7 +2360,7 @@
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2368,28 +2417,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y65536"/>
+  <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D56" activeCellId="0" sqref="D56"/>
+      <selection pane="bottomLeft" activeCell="A66" activeCellId="0" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1851851851852"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.0481481481481"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.537037037037"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.0518518518518"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.62222222222222"/>
-    <col collapsed="false" hidden="false" max="25" min="6" style="0" width="9.01481481481481"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="14.0148148148148"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6777777777778"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.537037037037"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.1259259259259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.7703703703704"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="25" min="6" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="14.3074074074074"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="32" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B1" s="32" t="s">
         <v>1</v>
@@ -2451,16 +2500,16 @@
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="36" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -2486,16 +2535,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="36" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B4" s="36" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -2554,10 +2603,10 @@
         <v>32</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E6" s="35"/>
       <c r="F6" s="4"/>
@@ -2589,10 +2638,10 @@
         <v>37</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E7" s="35"/>
       <c r="F7" s="4"/>
@@ -2645,16 +2694,16 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B9" s="38" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
@@ -2680,16 +2729,16 @@
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
@@ -2715,16 +2764,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
@@ -2750,16 +2799,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
@@ -2785,16 +2834,16 @@
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="20" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
@@ -2820,16 +2869,16 @@
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="4"/>
@@ -2855,16 +2904,16 @@
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
@@ -2890,16 +2939,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="4"/>
@@ -2982,13 +3031,13 @@
         <v>48</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="4"/>
@@ -3017,13 +3066,13 @@
         <v>48</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="4"/>
@@ -3052,13 +3101,13 @@
         <v>48</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="4"/>
@@ -3087,13 +3136,13 @@
         <v>48</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="4"/>
@@ -3122,13 +3171,13 @@
         <v>48</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="4"/>
@@ -3160,10 +3209,10 @@
         <v>51</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="4"/>
@@ -3192,13 +3241,13 @@
         <v>48</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="4"/>
@@ -3227,13 +3276,13 @@
         <v>48</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="4"/>
@@ -3265,10 +3314,10 @@
         <v>23</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="4"/>
@@ -3297,13 +3346,13 @@
         <v>48</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="4"/>
@@ -3332,13 +3381,13 @@
         <v>48</v>
       </c>
       <c r="B29" s="38" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="4"/>
@@ -3367,13 +3416,13 @@
         <v>48</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="4"/>
@@ -3402,13 +3451,13 @@
         <v>48</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="4"/>
@@ -3437,13 +3486,13 @@
         <v>48</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="4"/>
@@ -3472,13 +3521,13 @@
         <v>48</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="4"/>
@@ -3507,13 +3556,13 @@
         <v>48</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="4"/>
@@ -3542,13 +3591,13 @@
         <v>48</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="4"/>
@@ -3577,13 +3626,13 @@
         <v>48</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="4"/>
@@ -3663,16 +3712,16 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="27" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B39" s="27" t="s">
         <v>76</v>
       </c>
       <c r="C39" s="42" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E39" s="35"/>
       <c r="F39" s="4"/>
@@ -3698,16 +3747,16 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="27" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E40" s="35"/>
       <c r="F40" s="4"/>
@@ -3733,16 +3782,16 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="27" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E41" s="35"/>
       <c r="F41" s="4"/>
@@ -3768,16 +3817,16 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="27" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E42" s="35"/>
       <c r="F42" s="4"/>
@@ -3803,16 +3852,16 @@
     </row>
     <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="27" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E43" s="35"/>
       <c r="F43" s="4"/>
@@ -3838,16 +3887,16 @@
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="27" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C44" s="42" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -3873,16 +3922,16 @@
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="27" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -3908,16 +3957,16 @@
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="27" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C46" s="42" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -3943,16 +3992,16 @@
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="27" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C47" s="42" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -3978,16 +4027,16 @@
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="27" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C48" s="42" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -4013,16 +4062,16 @@
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="27" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C49" s="42" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -4048,16 +4097,16 @@
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="27" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C50" s="42" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -4083,16 +4132,16 @@
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="27" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C51" s="42" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -4118,16 +4167,16 @@
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="27" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C52" s="42" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -4186,10 +4235,10 @@
         <v>66</v>
       </c>
       <c r="C54" s="43" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -4218,13 +4267,13 @@
         <v>63</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C55" s="43" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -4280,13 +4329,13 @@
         <v>68</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C57" s="42" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -4318,10 +4367,10 @@
         <v>71</v>
       </c>
       <c r="C58" s="42" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -4350,13 +4399,13 @@
         <v>68</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C59" s="42" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -4385,13 +4434,13 @@
         <v>68</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C60" s="42" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -4443,9 +4492,15 @@
       <c r="Y61" s="4"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="27"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
+      <c r="A62" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" s="27" t="n">
+        <v>0</v>
+      </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
@@ -4469,219 +4524,39 @@
       <c r="X62" s="4"/>
       <c r="Y62" s="4"/>
     </row>
-    <row r="1048364" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048365" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048366" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048367" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048368" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048369" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048370" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048371" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048372" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048373" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048374" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048375" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048376" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048377" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048378" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048379" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048380" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048381" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048382" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048383" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048384" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048385" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048386" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048387" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048388" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048389" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048390" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048391" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048392" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048393" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048394" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048395" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048396" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048397" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048398" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048399" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048400" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048401" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048402" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048403" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048404" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048405" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048406" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048407" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048408" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048409" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048410" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048411" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048412" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048413" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048414" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048415" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048416" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048417" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048418" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048419" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048420" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048421" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048422" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048423" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048424" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048425" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048426" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048427" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048428" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048429" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048430" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048431" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048432" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048433" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048434" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048435" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048436" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048437" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048438" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048439" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048440" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048441" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048442" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048443" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048444" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048445" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048446" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048447" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048448" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048449" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048450" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048451" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048452" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048453" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048454" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048455" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048456" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048457" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048458" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048459" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048460" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048461" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048462" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048470" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048471" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048472" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048475" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048478" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048479" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048480" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048481" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048484" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048485" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4706,23 +4581,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1074074074074"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.0481481481481"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="8.62222222222222"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.32962962962963"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="9.01481481481481"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.0148148148148"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.6962962962963"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.537037037037"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.42592592592593"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.3074074074074"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="45" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B1" s="45" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D1" s="46"/>
       <c r="E1" s="46"/>
@@ -4750,13 +4625,13 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="48" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D2" s="46"/>
       <c r="E2" s="46"/>
